--- a/preProcessedFlu.xlsx
+++ b/preProcessedFlu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Vaccin</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Flu</t>
   </si>
 </sst>
 </file>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K347"/>
+  <dimension ref="A1:L347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -479,8 +485,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>0.25</v>
       </c>
@@ -514,8 +523,11 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -549,8 +561,11 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -584,8 +599,11 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -619,8 +637,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1</v>
       </c>
@@ -654,8 +675,11 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>0.25</v>
       </c>
@@ -689,8 +713,11 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>0.5</v>
       </c>
@@ -724,8 +751,11 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -759,8 +789,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>0.25</v>
       </c>
@@ -794,8 +827,11 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
       </c>
@@ -829,8 +865,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>0.25</v>
       </c>
@@ -864,8 +903,11 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1</v>
       </c>
@@ -899,8 +941,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>0.25</v>
       </c>
@@ -934,8 +979,11 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>0</v>
       </c>
@@ -969,8 +1017,11 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>0.75</v>
       </c>
@@ -1004,8 +1055,11 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>0.75</v>
       </c>
@@ -1039,8 +1093,11 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -1074,8 +1131,11 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>0.25</v>
       </c>
@@ -1109,8 +1169,11 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>0.75</v>
       </c>
@@ -1144,8 +1207,11 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>0.25</v>
       </c>
@@ -1179,8 +1245,11 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>0.75</v>
       </c>
@@ -1214,8 +1283,11 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>0.25</v>
       </c>
@@ -1249,8 +1321,11 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>0.25</v>
       </c>
@@ -1284,8 +1359,11 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1319,8 +1397,11 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>0.25</v>
       </c>
@@ -1354,8 +1435,11 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>0.5</v>
       </c>
@@ -1389,8 +1473,11 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1424,8 +1511,11 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1459,8 +1549,11 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>0.25</v>
       </c>
@@ -1494,8 +1587,11 @@
       <c r="K31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>0.75</v>
       </c>
@@ -1529,8 +1625,11 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1564,8 +1663,11 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1599,8 +1701,11 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1634,8 +1739,11 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1669,8 +1777,11 @@
       <c r="K36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>0.5</v>
       </c>
@@ -1704,8 +1815,11 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1739,8 +1853,11 @@
       <c r="K38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1774,8 +1891,11 @@
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>0.75</v>
       </c>
@@ -1809,8 +1929,11 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>0.25</v>
       </c>
@@ -1844,8 +1967,11 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>0.25</v>
       </c>
@@ -1879,8 +2005,11 @@
       <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>0.75</v>
       </c>
@@ -1914,8 +2043,11 @@
       <c r="K43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>0.25</v>
       </c>
@@ -1949,8 +2081,11 @@
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1984,8 +2119,11 @@
       <c r="K45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>0</v>
       </c>
@@ -2019,8 +2157,11 @@
       <c r="K46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>0.5</v>
       </c>
@@ -2054,8 +2195,11 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2089,8 +2233,11 @@
       <c r="K48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>0.75</v>
       </c>
@@ -2124,8 +2271,11 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2159,8 +2309,11 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>0.25</v>
       </c>
@@ -2194,8 +2347,11 @@
       <c r="K51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>0.5</v>
       </c>
@@ -2229,8 +2385,11 @@
       <c r="K52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2264,8 +2423,11 @@
       <c r="K53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>0.25</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>0</v>
       </c>
@@ -2334,8 +2499,11 @@
       <c r="K55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2369,8 +2537,11 @@
       <c r="K56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2404,8 +2575,11 @@
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>0.25</v>
       </c>
@@ -2439,8 +2613,11 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>0.75</v>
       </c>
@@ -2474,8 +2651,11 @@
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2509,8 +2689,11 @@
       <c r="K60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2544,8 +2727,11 @@
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2579,8 +2765,11 @@
       <c r="K62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>0</v>
       </c>
@@ -2614,8 +2803,11 @@
       <c r="K63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2649,8 +2841,11 @@
       <c r="K64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>0</v>
       </c>
@@ -2684,8 +2879,11 @@
       <c r="K65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>0</v>
       </c>
@@ -2719,8 +2917,11 @@
       <c r="K66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>0.75</v>
       </c>
@@ -2754,8 +2955,11 @@
       <c r="K67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>0.75</v>
       </c>
@@ -2789,8 +2993,11 @@
       <c r="K68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>0.25</v>
       </c>
@@ -2824,8 +3031,11 @@
       <c r="K69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>0.25</v>
       </c>
@@ -2859,8 +3069,11 @@
       <c r="K70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>0.5</v>
       </c>
@@ -2894,8 +3107,11 @@
       <c r="K71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2929,8 +3145,11 @@
       <c r="K72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>0.5</v>
       </c>
@@ -2964,8 +3183,11 @@
       <c r="K73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>0.75</v>
       </c>
@@ -2999,8 +3221,11 @@
       <c r="K74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3034,8 +3259,11 @@
       <c r="K75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>0.25</v>
       </c>
@@ -3069,8 +3297,11 @@
       <c r="K76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>0.75</v>
       </c>
@@ -3104,8 +3335,11 @@
       <c r="K77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>0.25</v>
       </c>
@@ -3139,8 +3373,11 @@
       <c r="K78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>0.25</v>
       </c>
@@ -3174,8 +3411,11 @@
       <c r="K79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>0.5</v>
       </c>
@@ -3209,8 +3449,11 @@
       <c r="K80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>0.5</v>
       </c>
@@ -3244,8 +3487,11 @@
       <c r="K81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3279,8 +3525,11 @@
       <c r="K82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>0.25</v>
       </c>
@@ -3314,8 +3563,11 @@
       <c r="K83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>0.75</v>
       </c>
@@ -3349,8 +3601,11 @@
       <c r="K84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>0</v>
       </c>
@@ -3384,8 +3639,11 @@
       <c r="K85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3419,8 +3677,11 @@
       <c r="K86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>0.25</v>
       </c>
@@ -3454,8 +3715,11 @@
       <c r="K87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>0.75</v>
       </c>
@@ -3489,8 +3753,11 @@
       <c r="K88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>0.25</v>
       </c>
@@ -3524,8 +3791,11 @@
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>0.5</v>
       </c>
@@ -3559,8 +3829,11 @@
       <c r="K90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>0.25</v>
       </c>
@@ -3594,8 +3867,11 @@
       <c r="K91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>0.25</v>
       </c>
@@ -3629,8 +3905,11 @@
       <c r="K92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>0.5</v>
       </c>
@@ -3664,8 +3943,11 @@
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>0.5</v>
       </c>
@@ -3699,8 +3981,11 @@
       <c r="K94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>0.25</v>
       </c>
@@ -3734,8 +4019,11 @@
       <c r="K95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>0.25</v>
       </c>
@@ -3769,8 +4057,11 @@
       <c r="K96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>0.5</v>
       </c>
@@ -3804,8 +4095,11 @@
       <c r="K97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>0.5</v>
       </c>
@@ -3839,8 +4133,11 @@
       <c r="K98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>0.5</v>
       </c>
@@ -3874,8 +4171,11 @@
       <c r="K99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>0.25</v>
       </c>
@@ -3909,8 +4209,11 @@
       <c r="K100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>0.75</v>
       </c>
@@ -3944,8 +4247,11 @@
       <c r="K101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>0.25</v>
       </c>
@@ -3979,8 +4285,11 @@
       <c r="K102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>0.5</v>
       </c>
@@ -4014,8 +4323,11 @@
       <c r="K103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>0</v>
       </c>
@@ -4049,8 +4361,11 @@
       <c r="K104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>0.25</v>
       </c>
@@ -4084,8 +4399,11 @@
       <c r="K105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>0.25</v>
       </c>
@@ -4119,8 +4437,11 @@
       <c r="K106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>0.25</v>
       </c>
@@ -4154,8 +4475,11 @@
       <c r="K107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4189,8 +4513,11 @@
       <c r="K108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>0</v>
       </c>
@@ -4224,8 +4551,11 @@
       <c r="K109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4259,8 +4589,11 @@
       <c r="K110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4294,8 +4627,11 @@
       <c r="K111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>0.75</v>
       </c>
@@ -4329,8 +4665,11 @@
       <c r="K112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4364,8 +4703,11 @@
       <c r="K113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4399,8 +4741,11 @@
       <c r="K114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>0.75</v>
       </c>
@@ -4434,8 +4779,11 @@
       <c r="K115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>0.75</v>
       </c>
@@ -4469,8 +4817,11 @@
       <c r="K116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117">
         <v>0.75</v>
       </c>
@@ -4504,8 +4855,11 @@
       <c r="K117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118">
         <v>0.75</v>
       </c>
@@ -4539,8 +4893,11 @@
       <c r="K118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119">
         <v>0.5</v>
       </c>
@@ -4574,8 +4931,11 @@
       <c r="K119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120">
         <v>0.25</v>
       </c>
@@ -4609,8 +4969,11 @@
       <c r="K120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121">
         <v>0.25</v>
       </c>
@@ -4644,8 +5007,11 @@
       <c r="K121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122">
         <v>0.5</v>
       </c>
@@ -4679,8 +5045,11 @@
       <c r="K122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123">
         <v>0.75</v>
       </c>
@@ -4714,8 +5083,11 @@
       <c r="K123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4749,8 +5121,11 @@
       <c r="K124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125">
         <v>0.25</v>
       </c>
@@ -4784,8 +5159,11 @@
       <c r="K125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126">
         <v>0.5</v>
       </c>
@@ -4819,8 +5197,11 @@
       <c r="K126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127">
         <v>0.25</v>
       </c>
@@ -4854,8 +5235,11 @@
       <c r="K127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4889,8 +5273,11 @@
       <c r="K128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4924,8 +5311,11 @@
       <c r="K129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130">
         <v>0.75</v>
       </c>
@@ -4959,8 +5349,11 @@
       <c r="K130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131">
         <v>0.25</v>
       </c>
@@ -4994,8 +5387,11 @@
       <c r="K131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132">
         <v>0.25</v>
       </c>
@@ -5029,8 +5425,11 @@
       <c r="K132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133">
         <v>1</v>
       </c>
@@ -5064,8 +5463,11 @@
       <c r="K133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134">
         <v>0.25</v>
       </c>
@@ -5099,8 +5501,11 @@
       <c r="K134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135">
         <v>0.5</v>
       </c>
@@ -5134,8 +5539,11 @@
       <c r="K135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136">
         <v>1</v>
       </c>
@@ -5169,8 +5577,11 @@
       <c r="K136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137">
         <v>1</v>
       </c>
@@ -5204,8 +5615,11 @@
       <c r="K137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138">
         <v>0.75</v>
       </c>
@@ -5239,8 +5653,11 @@
       <c r="K138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139">
         <v>1</v>
       </c>
@@ -5274,8 +5691,11 @@
       <c r="K139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140">
         <v>0.75</v>
       </c>
@@ -5309,8 +5729,11 @@
       <c r="K140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141">
         <v>0.25</v>
       </c>
@@ -5344,8 +5767,11 @@
       <c r="K141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142">
         <v>1</v>
       </c>
@@ -5379,8 +5805,11 @@
       <c r="K142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143">
         <v>0.75</v>
       </c>
@@ -5414,8 +5843,11 @@
       <c r="K143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144">
         <v>1</v>
       </c>
@@ -5449,8 +5881,11 @@
       <c r="K144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145">
         <v>0.5</v>
       </c>
@@ -5484,8 +5919,11 @@
       <c r="K145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146">
         <v>0.75</v>
       </c>
@@ -5519,8 +5957,11 @@
       <c r="K146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147">
         <v>0</v>
       </c>
@@ -5554,8 +5995,11 @@
       <c r="K147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148">
         <v>0.75</v>
       </c>
@@ -5589,8 +6033,11 @@
       <c r="K148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149">
         <v>1</v>
       </c>
@@ -5624,8 +6071,11 @@
       <c r="K149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150">
         <v>0.25</v>
       </c>
@@ -5659,8 +6109,11 @@
       <c r="K150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151">
         <v>0.75</v>
       </c>
@@ -5694,8 +6147,11 @@
       <c r="K151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152">
         <v>0.75</v>
       </c>
@@ -5729,8 +6185,11 @@
       <c r="K152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153">
         <v>0.75</v>
       </c>
@@ -5764,8 +6223,11 @@
       <c r="K153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154">
         <v>0.75</v>
       </c>
@@ -5799,8 +6261,11 @@
       <c r="K154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155">
         <v>0.75</v>
       </c>
@@ -5834,8 +6299,11 @@
       <c r="K155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5869,8 +6337,11 @@
       <c r="K156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157">
         <v>0.75</v>
       </c>
@@ -5904,8 +6375,11 @@
       <c r="K157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158">
         <v>0.75</v>
       </c>
@@ -5939,8 +6413,11 @@
       <c r="K158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159">
         <v>0.5</v>
       </c>
@@ -5974,8 +6451,11 @@
       <c r="K159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160">
         <v>0.25</v>
       </c>
@@ -6009,8 +6489,11 @@
       <c r="K160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161">
         <v>1</v>
       </c>
@@ -6044,8 +6527,11 @@
       <c r="K161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162">
         <v>0</v>
       </c>
@@ -6079,8 +6565,11 @@
       <c r="K162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163">
         <v>0</v>
       </c>
@@ -6114,8 +6603,11 @@
       <c r="K163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164">
         <v>0.75</v>
       </c>
@@ -6149,8 +6641,11 @@
       <c r="K164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165">
         <v>0.5</v>
       </c>
@@ -6184,8 +6679,11 @@
       <c r="K165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166">
         <v>0.75</v>
       </c>
@@ -6219,8 +6717,11 @@
       <c r="K166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167">
         <v>0</v>
       </c>
@@ -6254,8 +6755,11 @@
       <c r="K167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168">
         <v>0.75</v>
       </c>
@@ -6289,8 +6793,11 @@
       <c r="K168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169">
         <v>1</v>
       </c>
@@ -6324,8 +6831,11 @@
       <c r="K169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170">
         <v>0.5</v>
       </c>
@@ -6359,8 +6869,11 @@
       <c r="K170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171">
         <v>0</v>
       </c>
@@ -6394,8 +6907,11 @@
       <c r="K171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172">
         <v>0.5</v>
       </c>
@@ -6429,8 +6945,11 @@
       <c r="K172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173">
         <v>0.25</v>
       </c>
@@ -6464,8 +6983,11 @@
       <c r="K173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174">
         <v>0.5</v>
       </c>
@@ -6499,8 +7021,11 @@
       <c r="K174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175">
         <v>0.5</v>
       </c>
@@ -6534,8 +7059,11 @@
       <c r="K175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176">
         <v>0.25</v>
       </c>
@@ -6569,8 +7097,11 @@
       <c r="K176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177">
         <v>0.75</v>
       </c>
@@ -6604,8 +7135,11 @@
       <c r="K177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178">
         <v>0</v>
       </c>
@@ -6639,8 +7173,11 @@
       <c r="K178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179">
         <v>1</v>
       </c>
@@ -6674,8 +7211,11 @@
       <c r="K179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180">
         <v>0.5</v>
       </c>
@@ -6709,8 +7249,11 @@
       <c r="K180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181">
         <v>1</v>
       </c>
@@ -6744,8 +7287,11 @@
       <c r="K181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="L181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182">
         <v>1</v>
       </c>
@@ -6779,8 +7325,11 @@
       <c r="K182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183">
         <v>0.75</v>
       </c>
@@ -6814,8 +7363,11 @@
       <c r="K183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184">
         <v>1</v>
       </c>
@@ -6849,8 +7401,11 @@
       <c r="K184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185">
         <v>0.5</v>
       </c>
@@ -6884,8 +7439,11 @@
       <c r="K185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186">
         <v>0.25</v>
       </c>
@@ -6919,8 +7477,11 @@
       <c r="K186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187">
         <v>0</v>
       </c>
@@ -6954,8 +7515,11 @@
       <c r="K187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188">
         <v>1</v>
       </c>
@@ -6989,8 +7553,11 @@
       <c r="K188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="L188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189">
         <v>1</v>
       </c>
@@ -7024,8 +7591,11 @@
       <c r="K189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190">
         <v>1</v>
       </c>
@@ -7059,8 +7629,11 @@
       <c r="K190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="L190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191">
         <v>0.25</v>
       </c>
@@ -7094,8 +7667,11 @@
       <c r="K191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="L191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192">
         <v>0.5</v>
       </c>
@@ -7129,8 +7705,11 @@
       <c r="K192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193">
         <v>0.5</v>
       </c>
@@ -7164,8 +7743,11 @@
       <c r="K193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="L193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194">
         <v>1</v>
       </c>
@@ -7199,8 +7781,11 @@
       <c r="K194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195">
         <v>0</v>
       </c>
@@ -7234,8 +7819,11 @@
       <c r="K195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="L195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196">
         <v>1</v>
       </c>
@@ -7269,8 +7857,11 @@
       <c r="K196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197">
         <v>0.75</v>
       </c>
@@ -7304,8 +7895,11 @@
       <c r="K197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198">
         <v>1</v>
       </c>
@@ -7339,8 +7933,11 @@
       <c r="K198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="L198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199">
         <v>1</v>
       </c>
@@ -7374,8 +7971,11 @@
       <c r="K199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="L199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200">
         <v>0.75</v>
       </c>
@@ -7409,8 +8009,11 @@
       <c r="K200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201">
         <v>0.5</v>
       </c>
@@ -7444,8 +8047,11 @@
       <c r="K201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="L201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202">
         <v>0.5</v>
       </c>
@@ -7479,8 +8085,11 @@
       <c r="K202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203">
         <v>0.5</v>
       </c>
@@ -7514,8 +8123,11 @@
       <c r="K203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="L203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204">
         <v>0</v>
       </c>
@@ -7549,8 +8161,11 @@
       <c r="K204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="L204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205">
         <v>1</v>
       </c>
@@ -7584,8 +8199,11 @@
       <c r="K205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206">
         <v>0.75</v>
       </c>
@@ -7619,8 +8237,11 @@
       <c r="K206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="L206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207">
         <v>0.25</v>
       </c>
@@ -7654,8 +8275,11 @@
       <c r="K207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="L207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208">
         <v>1</v>
       </c>
@@ -7689,8 +8313,11 @@
       <c r="K208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="L208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209">
         <v>0</v>
       </c>
@@ -7724,8 +8351,11 @@
       <c r="K209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="L209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210">
         <v>1</v>
       </c>
@@ -7759,8 +8389,11 @@
       <c r="K210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="L210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211">
         <v>0</v>
       </c>
@@ -7794,8 +8427,11 @@
       <c r="K211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="L211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212">
         <v>0.5</v>
       </c>
@@ -7829,8 +8465,11 @@
       <c r="K212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="L212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213">
         <v>1</v>
       </c>
@@ -7864,8 +8503,11 @@
       <c r="K213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:11">
+      <c r="L213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214">
         <v>0.5</v>
       </c>
@@ -7899,8 +8541,11 @@
       <c r="K214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:11">
+      <c r="L214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215">
         <v>1</v>
       </c>
@@ -7934,8 +8579,11 @@
       <c r="K215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="L215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216">
         <v>0.25</v>
       </c>
@@ -7969,8 +8617,11 @@
       <c r="K216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="L216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217">
         <v>0.5</v>
       </c>
@@ -8004,8 +8655,11 @@
       <c r="K217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="L217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218">
         <v>0.75</v>
       </c>
@@ -8039,8 +8693,11 @@
       <c r="K218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:11">
+      <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219">
         <v>1</v>
       </c>
@@ -8074,8 +8731,11 @@
       <c r="K219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:11">
+      <c r="L219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220">
         <v>0.25</v>
       </c>
@@ -8109,8 +8769,11 @@
       <c r="K220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221">
         <v>0.75</v>
       </c>
@@ -8144,8 +8807,11 @@
       <c r="K221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:11">
+      <c r="L221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222">
         <v>0.5</v>
       </c>
@@ -8179,8 +8845,11 @@
       <c r="K222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:11">
+      <c r="L222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223">
         <v>0.75</v>
       </c>
@@ -8214,8 +8883,11 @@
       <c r="K223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:11">
+      <c r="L223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224">
         <v>0.25</v>
       </c>
@@ -8249,8 +8921,11 @@
       <c r="K224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:11">
+      <c r="L224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225">
         <v>0.5</v>
       </c>
@@ -8284,8 +8959,11 @@
       <c r="K225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:11">
+      <c r="L225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226">
         <v>1</v>
       </c>
@@ -8319,8 +8997,11 @@
       <c r="K226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="L226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227">
         <v>1</v>
       </c>
@@ -8354,8 +9035,11 @@
       <c r="K227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:11">
+      <c r="L227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228">
         <v>0.75</v>
       </c>
@@ -8389,8 +9073,11 @@
       <c r="K228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:11">
+      <c r="L228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229">
         <v>0.25</v>
       </c>
@@ -8424,8 +9111,11 @@
       <c r="K229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:11">
+      <c r="L229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230">
         <v>0</v>
       </c>
@@ -8459,8 +9149,11 @@
       <c r="K230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:11">
+      <c r="L230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231">
         <v>0.25</v>
       </c>
@@ -8494,8 +9187,11 @@
       <c r="K231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:11">
+      <c r="L231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232">
         <v>0.75</v>
       </c>
@@ -8529,8 +9225,11 @@
       <c r="K232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="L232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233">
         <v>0.75</v>
       </c>
@@ -8564,8 +9263,11 @@
       <c r="K233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:11">
+      <c r="L233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234">
         <v>1</v>
       </c>
@@ -8599,8 +9301,11 @@
       <c r="K234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="L234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235">
         <v>0.75</v>
       </c>
@@ -8634,8 +9339,11 @@
       <c r="K235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:11">
+      <c r="L235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236">
         <v>0</v>
       </c>
@@ -8669,8 +9377,11 @@
       <c r="K236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:11">
+      <c r="L236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237">
         <v>0.75</v>
       </c>
@@ -8704,8 +9415,11 @@
       <c r="K237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:11">
+      <c r="L237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238">
         <v>0.75</v>
       </c>
@@ -8739,8 +9453,11 @@
       <c r="K238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:11">
+      <c r="L238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239">
         <v>0.5</v>
       </c>
@@ -8774,8 +9491,11 @@
       <c r="K239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:11">
+      <c r="L239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240">
         <v>1</v>
       </c>
@@ -8809,8 +9529,11 @@
       <c r="K240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:11">
+      <c r="L240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241">
         <v>0.5</v>
       </c>
@@ -8844,8 +9567,11 @@
       <c r="K241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:11">
+      <c r="L241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242">
         <v>0.5</v>
       </c>
@@ -8879,8 +9605,11 @@
       <c r="K242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:11">
+      <c r="L242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243">
         <v>0.25</v>
       </c>
@@ -8914,8 +9643,11 @@
       <c r="K243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:11">
+      <c r="L243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244">
         <v>1</v>
       </c>
@@ -8949,8 +9681,11 @@
       <c r="K244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:11">
+      <c r="L244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245">
         <v>1</v>
       </c>
@@ -8984,8 +9719,11 @@
       <c r="K245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:11">
+      <c r="L245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246">
         <v>0</v>
       </c>
@@ -9019,8 +9757,11 @@
       <c r="K246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:11">
+      <c r="L246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247">
         <v>0.25</v>
       </c>
@@ -9054,8 +9795,11 @@
       <c r="K247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:11">
+      <c r="L247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248">
         <v>0.75</v>
       </c>
@@ -9089,8 +9833,11 @@
       <c r="K248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:11">
+      <c r="L248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249">
         <v>1</v>
       </c>
@@ -9124,8 +9871,11 @@
       <c r="K249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:11">
+      <c r="L249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250">
         <v>1</v>
       </c>
@@ -9159,8 +9909,11 @@
       <c r="K250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:11">
+      <c r="L250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251">
         <v>0.75</v>
       </c>
@@ -9194,8 +9947,11 @@
       <c r="K251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:11">
+      <c r="L251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252">
         <v>0.75</v>
       </c>
@@ -9229,8 +9985,11 @@
       <c r="K252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:11">
+      <c r="L252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253">
         <v>0.5</v>
       </c>
@@ -9264,8 +10023,11 @@
       <c r="K253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:11">
+      <c r="L253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254">
         <v>0.75</v>
       </c>
@@ -9299,8 +10061,11 @@
       <c r="K254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:11">
+      <c r="L254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255">
         <v>0.5</v>
       </c>
@@ -9334,8 +10099,11 @@
       <c r="K255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:11">
+      <c r="L255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256">
         <v>1</v>
       </c>
@@ -9369,8 +10137,11 @@
       <c r="K256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:11">
+      <c r="L256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257">
         <v>0</v>
       </c>
@@ -9404,8 +10175,11 @@
       <c r="K257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:11">
+      <c r="L257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258">
         <v>1</v>
       </c>
@@ -9439,8 +10213,11 @@
       <c r="K258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:11">
+      <c r="L258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259">
         <v>1</v>
       </c>
@@ -9474,8 +10251,11 @@
       <c r="K259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:11">
+      <c r="L259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260">
         <v>1</v>
       </c>
@@ -9509,8 +10289,11 @@
       <c r="K260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:11">
+      <c r="L260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261">
         <v>0.5</v>
       </c>
@@ -9544,8 +10327,11 @@
       <c r="K261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:11">
+      <c r="L261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262">
         <v>0.75</v>
       </c>
@@ -9579,8 +10365,11 @@
       <c r="K262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:11">
+      <c r="L262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263">
         <v>0.25</v>
       </c>
@@ -9614,8 +10403,11 @@
       <c r="K263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:11">
+      <c r="L263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264">
         <v>0.5</v>
       </c>
@@ -9649,8 +10441,11 @@
       <c r="K264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:11">
+      <c r="L264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265">
         <v>1</v>
       </c>
@@ -9684,8 +10479,11 @@
       <c r="K265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:11">
+      <c r="L265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266">
         <v>1</v>
       </c>
@@ -9719,8 +10517,11 @@
       <c r="K266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:11">
+      <c r="L266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267">
         <v>1</v>
       </c>
@@ -9754,8 +10555,11 @@
       <c r="K267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:11">
+      <c r="L267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268">
         <v>1</v>
       </c>
@@ -9789,8 +10593,11 @@
       <c r="K268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:11">
+      <c r="L268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269">
         <v>0.5</v>
       </c>
@@ -9824,8 +10631,11 @@
       <c r="K269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:11">
+      <c r="L269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270">
         <v>0.5</v>
       </c>
@@ -9859,8 +10669,11 @@
       <c r="K270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:11">
+      <c r="L270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271">
         <v>1</v>
       </c>
@@ -9894,8 +10707,11 @@
       <c r="K271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:11">
+      <c r="L271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272">
         <v>0.5</v>
       </c>
@@ -9929,8 +10745,11 @@
       <c r="K272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:11">
+      <c r="L272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273">
         <v>0</v>
       </c>
@@ -9964,8 +10783,11 @@
       <c r="K273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:11">
+      <c r="L273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274">
         <v>1</v>
       </c>
@@ -9999,8 +10821,11 @@
       <c r="K274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:11">
+      <c r="L274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275">
         <v>0.75</v>
       </c>
@@ -10034,8 +10859,11 @@
       <c r="K275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:11">
+      <c r="L275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276">
         <v>0.25</v>
       </c>
@@ -10069,8 +10897,11 @@
       <c r="K276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:11">
+      <c r="L276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277">
         <v>0.25</v>
       </c>
@@ -10104,8 +10935,11 @@
       <c r="K277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:11">
+      <c r="L277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278">
         <v>0.75</v>
       </c>
@@ -10139,8 +10973,11 @@
       <c r="K278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:11">
+      <c r="L278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279">
         <v>0.25</v>
       </c>
@@ -10174,8 +11011,11 @@
       <c r="K279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:11">
+      <c r="L279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280">
         <v>0.75</v>
       </c>
@@ -10209,8 +11049,11 @@
       <c r="K280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:11">
+      <c r="L280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281">
         <v>0.75</v>
       </c>
@@ -10244,8 +11087,11 @@
       <c r="K281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:11">
+      <c r="L281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282">
         <v>0.25</v>
       </c>
@@ -10279,8 +11125,11 @@
       <c r="K282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:11">
+      <c r="L282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283">
         <v>0.75</v>
       </c>
@@ -10314,8 +11163,11 @@
       <c r="K283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:11">
+      <c r="L283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284">
         <v>0.25</v>
       </c>
@@ -10349,8 +11201,11 @@
       <c r="K284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:11">
+      <c r="L284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285">
         <v>1</v>
       </c>
@@ -10384,8 +11239,11 @@
       <c r="K285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:11">
+      <c r="L285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286">
         <v>0.5</v>
       </c>
@@ -10419,8 +11277,11 @@
       <c r="K286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:11">
+      <c r="L286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287">
         <v>0.5</v>
       </c>
@@ -10454,8 +11315,11 @@
       <c r="K287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:11">
+      <c r="L287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288">
         <v>0.5</v>
       </c>
@@ -10489,8 +11353,11 @@
       <c r="K288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:11">
+      <c r="L288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
       <c r="A289">
         <v>0.25</v>
       </c>
@@ -10524,8 +11391,11 @@
       <c r="K289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:11">
+      <c r="L289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
       <c r="A290">
         <v>0.5</v>
       </c>
@@ -10559,8 +11429,11 @@
       <c r="K290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:11">
+      <c r="L290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12">
       <c r="A291">
         <v>0.5</v>
       </c>
@@ -10594,8 +11467,11 @@
       <c r="K291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:11">
+      <c r="L291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
       <c r="A292">
         <v>0.5</v>
       </c>
@@ -10629,8 +11505,11 @@
       <c r="K292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:11">
+      <c r="L292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12">
       <c r="A293">
         <v>0.5</v>
       </c>
@@ -10664,8 +11543,11 @@
       <c r="K293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:11">
+      <c r="L293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
       <c r="A294">
         <v>0</v>
       </c>
@@ -10699,8 +11581,11 @@
       <c r="K294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:11">
+      <c r="L294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
       <c r="A295">
         <v>1</v>
       </c>
@@ -10734,8 +11619,11 @@
       <c r="K295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:11">
+      <c r="L295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
       <c r="A296">
         <v>0.5</v>
       </c>
@@ -10769,8 +11657,11 @@
       <c r="K296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:11">
+      <c r="L296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297">
         <v>0.5</v>
       </c>
@@ -10804,8 +11695,11 @@
       <c r="K297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:11">
+      <c r="L297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298">
         <v>0.75</v>
       </c>
@@ -10839,8 +11733,11 @@
       <c r="K298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:11">
+      <c r="L298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
       <c r="A299">
         <v>0.5</v>
       </c>
@@ -10874,8 +11771,11 @@
       <c r="K299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:11">
+      <c r="L299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
       <c r="A300">
         <v>0.75</v>
       </c>
@@ -10909,8 +11809,11 @@
       <c r="K300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:11">
+      <c r="L300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
       <c r="A301">
         <v>0.5</v>
       </c>
@@ -10944,8 +11847,11 @@
       <c r="K301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:11">
+      <c r="L301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12">
       <c r="A302">
         <v>1</v>
       </c>
@@ -10979,8 +11885,11 @@
       <c r="K302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:11">
+      <c r="L302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12">
       <c r="A303">
         <v>1</v>
       </c>
@@ -11014,8 +11923,11 @@
       <c r="K303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:11">
+      <c r="L303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12">
       <c r="A304">
         <v>0.5</v>
       </c>
@@ -11049,8 +11961,11 @@
       <c r="K304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:11">
+      <c r="L304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12">
       <c r="A305">
         <v>0.25</v>
       </c>
@@ -11084,8 +11999,11 @@
       <c r="K305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:11">
+      <c r="L305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12">
       <c r="A306">
         <v>0.75</v>
       </c>
@@ -11119,8 +12037,11 @@
       <c r="K306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:11">
+      <c r="L306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12">
       <c r="A307">
         <v>0.25</v>
       </c>
@@ -11154,8 +12075,11 @@
       <c r="K307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:11">
+      <c r="L307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12">
       <c r="A308">
         <v>0.5</v>
       </c>
@@ -11189,8 +12113,11 @@
       <c r="K308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:11">
+      <c r="L308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12">
       <c r="A309">
         <v>0.75</v>
       </c>
@@ -11224,8 +12151,11 @@
       <c r="K309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:11">
+      <c r="L309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12">
       <c r="A310">
         <v>1</v>
       </c>
@@ -11259,8 +12189,11 @@
       <c r="K310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:11">
+      <c r="L310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12">
       <c r="A311">
         <v>0.75</v>
       </c>
@@ -11294,8 +12227,11 @@
       <c r="K311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:11">
+      <c r="L311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12">
       <c r="A312">
         <v>0.75</v>
       </c>
@@ -11329,8 +12265,11 @@
       <c r="K312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:11">
+      <c r="L312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12">
       <c r="A313">
         <v>0.5</v>
       </c>
@@ -11364,8 +12303,11 @@
       <c r="K313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:11">
+      <c r="L313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12">
       <c r="A314">
         <v>1</v>
       </c>
@@ -11399,8 +12341,11 @@
       <c r="K314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:11">
+      <c r="L314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12">
       <c r="A315">
         <v>0.25</v>
       </c>
@@ -11434,8 +12379,11 @@
       <c r="K315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:11">
+      <c r="L315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12">
       <c r="A316">
         <v>0</v>
       </c>
@@ -11469,8 +12417,11 @@
       <c r="K316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:11">
+      <c r="L316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12">
       <c r="A317">
         <v>1</v>
       </c>
@@ -11504,8 +12455,11 @@
       <c r="K317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:11">
+      <c r="L317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12">
       <c r="A318">
         <v>0.5</v>
       </c>
@@ -11539,8 +12493,11 @@
       <c r="K318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:11">
+      <c r="L318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12">
       <c r="A319">
         <v>0.5</v>
       </c>
@@ -11574,8 +12531,11 @@
       <c r="K319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:11">
+      <c r="L319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12">
       <c r="A320">
         <v>1</v>
       </c>
@@ -11609,8 +12569,11 @@
       <c r="K320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:11">
+      <c r="L320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12">
       <c r="A321">
         <v>0.25</v>
       </c>
@@ -11644,8 +12607,11 @@
       <c r="K321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:11">
+      <c r="L321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12">
       <c r="A322">
         <v>0.75</v>
       </c>
@@ -11679,8 +12645,11 @@
       <c r="K322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:11">
+      <c r="L322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12">
       <c r="A323">
         <v>0.75</v>
       </c>
@@ -11714,8 +12683,11 @@
       <c r="K323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:11">
+      <c r="L323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12">
       <c r="A324">
         <v>0</v>
       </c>
@@ -11749,8 +12721,11 @@
       <c r="K324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:11">
+      <c r="L324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12">
       <c r="A325">
         <v>0.75</v>
       </c>
@@ -11784,8 +12759,11 @@
       <c r="K325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:11">
+      <c r="L325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12">
       <c r="A326">
         <v>0.5</v>
       </c>
@@ -11819,8 +12797,11 @@
       <c r="K326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:11">
+      <c r="L326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -11854,8 +12835,11 @@
       <c r="K327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:11">
+      <c r="L327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12">
       <c r="A328">
         <v>0.75</v>
       </c>
@@ -11889,8 +12873,11 @@
       <c r="K328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:11">
+      <c r="L328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12">
       <c r="A329">
         <v>0.75</v>
       </c>
@@ -11924,8 +12911,11 @@
       <c r="K329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:11">
+      <c r="L329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12">
       <c r="A330">
         <v>0.5</v>
       </c>
@@ -11959,8 +12949,11 @@
       <c r="K330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:11">
+      <c r="L330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12">
       <c r="A331">
         <v>0.75</v>
       </c>
@@ -11994,8 +12987,11 @@
       <c r="K331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:11">
+      <c r="L331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12">
       <c r="A332">
         <v>1</v>
       </c>
@@ -12029,8 +13025,11 @@
       <c r="K332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:11">
+      <c r="L332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12">
       <c r="A333">
         <v>0.25</v>
       </c>
@@ -12064,8 +13063,11 @@
       <c r="K333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:11">
+      <c r="L333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12">
       <c r="A334">
         <v>1</v>
       </c>
@@ -12099,8 +13101,11 @@
       <c r="K334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:11">
+      <c r="L334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12">
       <c r="A335">
         <v>0.25</v>
       </c>
@@ -12134,8 +13139,11 @@
       <c r="K335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:11">
+      <c r="L335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12">
       <c r="A336">
         <v>1</v>
       </c>
@@ -12169,8 +13177,11 @@
       <c r="K336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:11">
+      <c r="L336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12">
       <c r="A337">
         <v>1</v>
       </c>
@@ -12204,8 +13215,11 @@
       <c r="K337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:11">
+      <c r="L337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12">
       <c r="A338">
         <v>0.75</v>
       </c>
@@ -12239,8 +13253,11 @@
       <c r="K338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:11">
+      <c r="L338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12">
       <c r="A339">
         <v>0.75</v>
       </c>
@@ -12274,8 +13291,11 @@
       <c r="K339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:11">
+      <c r="L339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12">
       <c r="A340">
         <v>0.75</v>
       </c>
@@ -12309,8 +13329,11 @@
       <c r="K340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:11">
+      <c r="L340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12">
       <c r="A341">
         <v>0.25</v>
       </c>
@@ -12344,8 +13367,11 @@
       <c r="K341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:11">
+      <c r="L341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12">
       <c r="A342">
         <v>0.75</v>
       </c>
@@ -12379,8 +13405,11 @@
       <c r="K342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:11">
+      <c r="L342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12">
       <c r="A343">
         <v>0.25</v>
       </c>
@@ -12414,8 +13443,11 @@
       <c r="K343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:11">
+      <c r="L343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12">
       <c r="A344">
         <v>0.75</v>
       </c>
@@ -12449,8 +13481,11 @@
       <c r="K344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:11">
+      <c r="L344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12">
       <c r="A345">
         <v>0.75</v>
       </c>
@@ -12484,8 +13519,11 @@
       <c r="K345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:11">
+      <c r="L345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12">
       <c r="A346">
         <v>0.5</v>
       </c>
@@ -12519,8 +13557,11 @@
       <c r="K346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:11">
+      <c r="L346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12">
       <c r="A347">
         <v>0.75</v>
       </c>
@@ -12553,6 +13594,9 @@
       </c>
       <c r="K347">
         <v>0</v>
+      </c>
+      <c r="L347">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
